--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T21:05:37+00:00</t>
+    <t>2022-11-28T16:09:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:09:45+00:00</t>
+    <t>2022-11-28T16:23:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:23:56+00:00</t>
+    <t>2022-11-28T16:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:45:04+00:00</t>
+    <t>2022-11-28T18:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$150</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5273" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5240" uniqueCount="699">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:28:29+00:00</t>
+    <t>2022-11-28T18:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -582,26 +582,10 @@
     <t>PlanDefinition.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://github.com/alpivonka/FHIR-Base-Clinical-Examples/StructureDefinition/study}
-</t>
-  </si>
-  <si>
-    <t>Part Of Research Study</t>
-  </si>
-  <si>
-    <t>child to parent reference/association</t>
   </si>
   <si>
     <t>PlanDefinition.modifierExtension</t>
@@ -2491,7 +2475,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM151"/>
+  <dimension ref="A1:AM150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4432,7 +4416,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4454,12 +4438,14 @@
         <v>99</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>72</v>
@@ -4496,17 +4482,19 @@
         <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -4524,7 +4512,7 @@
         <v>72</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>72</v>
@@ -4535,41 +4523,43 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>72</v>
       </c>
@@ -4617,7 +4607,7 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -4635,7 +4625,7 @@
         <v>72</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>72</v>
@@ -4650,26 +4640,26 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>190</v>
@@ -4678,10 +4668,10 @@
         <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>72</v>
@@ -4730,28 +4720,28 @@
         <v>72</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>72</v>
@@ -4759,7 +4749,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4770,7 +4760,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -4782,19 +4772,19 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>72</v>
@@ -4843,36 +4833,36 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>72</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4883,7 +4873,7 @@
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -4895,20 +4885,18 @@
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>72</v>
       </c>
@@ -4956,13 +4944,13 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
@@ -4971,21 +4959,21 @@
         <v>117</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5008,18 +4996,20 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>72</v>
       </c>
@@ -5067,7 +5057,7 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
@@ -5076,19 +5066,19 @@
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>117</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>72</v>
@@ -5096,7 +5086,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5119,20 +5109,18 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>72</v>
       </c>
@@ -5180,7 +5168,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -5189,7 +5177,7 @@
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>225</v>
+        <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>117</v>
@@ -5198,7 +5186,7 @@
         <v>226</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -5209,7 +5197,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5229,20 +5217,18 @@
         <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M25" t="s" s="2">
         <v>230</v>
       </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>72</v>
@@ -5291,7 +5277,7 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -5306,10 +5292,10 @@
         <v>117</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>180</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -5320,7 +5306,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5340,16 +5326,16 @@
         <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5376,13 +5362,13 @@
         <v>72</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>72</v>
@@ -5400,7 +5386,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -5418,7 +5404,7 @@
         <v>72</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>72</v>
@@ -5429,7 +5415,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5437,7 +5423,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>80</v>
@@ -5446,13 +5432,13 @@
         <v>72</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>238</v>
@@ -5460,7 +5446,9 @@
       <c r="L27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>72</v>
@@ -5485,13 +5473,13 @@
         <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>72</v>
@@ -5509,10 +5497,10 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5524,13 +5512,13 @@
         <v>117</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>72</v>
@@ -5538,7 +5526,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5546,7 +5534,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>80</v>
@@ -5555,28 +5543,32 @@
         <v>72</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="P28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="Q28" t="s" s="2">
         <v>72</v>
       </c>
@@ -5596,34 +5588,34 @@
         <v>72</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="AF28" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5635,13 +5627,13 @@
         <v>117</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>72</v>
@@ -5649,7 +5641,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5669,73 +5661,71 @@
         <v>72</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -5750,13 +5740,13 @@
         <v>117</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>72</v>
@@ -5764,11 +5754,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5784,27 +5774,25 @@
         <v>72</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="P30" t="s" s="2">
-        <v>265</v>
-      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>72</v>
       </c>
@@ -5824,13 +5812,13 @@
         <v>72</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>72</v>
@@ -5848,7 +5836,7 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -5863,13 +5851,13 @@
         <v>117</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>72</v>
@@ -5877,11 +5865,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>270</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5900,18 +5888,20 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>72</v>
       </c>
@@ -5959,7 +5949,7 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -5974,13 +5964,13 @@
         <v>117</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>72</v>
@@ -5988,7 +5978,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5999,7 +5989,7 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -6011,20 +6001,18 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>72</v>
       </c>
@@ -6072,13 +6060,13 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
@@ -6087,13 +6075,13 @@
         <v>117</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>285</v>
+        <v>72</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>72</v>
@@ -6101,7 +6089,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6112,7 +6100,7 @@
         <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>72</v>
@@ -6124,16 +6112,16 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6183,13 +6171,13 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
@@ -6198,10 +6186,10 @@
         <v>117</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>72</v>
@@ -6212,7 +6200,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6223,7 +6211,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>72</v>
@@ -6235,18 +6223,20 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>72</v>
       </c>
@@ -6294,13 +6284,13 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>72</v>
@@ -6309,10 +6299,10 @@
         <v>117</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -6323,7 +6313,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6346,20 +6336,18 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N35" t="s" s="2">
         <v>305</v>
       </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>72</v>
       </c>
@@ -6383,13 +6371,13 @@
         <v>72</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>72</v>
@@ -6407,7 +6395,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -6422,10 +6410,10 @@
         <v>117</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
@@ -6436,7 +6424,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6447,7 +6435,7 @@
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>72</v>
@@ -6456,19 +6444,19 @@
         <v>72</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6494,13 +6482,13 @@
         <v>72</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>311</v>
+        <v>72</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>312</v>
+        <v>72</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>72</v>
@@ -6518,13 +6506,13 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>72</v>
@@ -6536,18 +6524,18 @@
         <v>313</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>72</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6570,17 +6558,15 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>72</v>
@@ -6629,7 +6615,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -6644,25 +6630,25 @@
         <v>117</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>318</v>
+        <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>211</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>72</v>
+        <v>320</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6681,16 +6667,18 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>72</v>
       </c>
@@ -6738,7 +6726,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -6753,25 +6741,25 @@
         <v>117</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>72</v>
+        <v>324</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>72</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6790,18 +6778,18 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
         <v>328</v>
       </c>
+      <c r="M39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>72</v>
       </c>
@@ -6849,7 +6837,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -6864,21 +6852,21 @@
         <v>117</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6901,18 +6889,20 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>72</v>
       </c>
@@ -6960,7 +6950,7 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -6975,21 +6965,21 @@
         <v>117</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7009,22 +6999,22 @@
         <v>72</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>72</v>
@@ -7073,7 +7063,7 @@
         <v>72</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -7088,21 +7078,21 @@
         <v>117</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>343</v>
+        <v>213</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7113,7 +7103,7 @@
         <v>73</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -7122,20 +7112,18 @@
         <v>72</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M42" t="s" s="2">
         <v>348</v>
       </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
         <v>349</v>
       </c>
@@ -7162,13 +7150,13 @@
         <v>72</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>72</v>
+        <v>351</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>72</v>
@@ -7186,13 +7174,13 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
@@ -7201,21 +7189,21 @@
         <v>117</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>211</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7238,18 +7226,16 @@
         <v>72</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>354</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>72</v>
       </c>
@@ -7273,13 +7259,13 @@
         <v>72</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>72</v>
@@ -7297,7 +7283,7 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -7312,10 +7298,10 @@
         <v>117</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>218</v>
+        <v>356</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>72</v>
@@ -7326,7 +7312,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7349,13 +7335,13 @@
         <v>72</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7406,7 +7392,7 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -7424,7 +7410,7 @@
         <v>72</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>72</v>
@@ -7435,7 +7421,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7458,13 +7444,13 @@
         <v>72</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7515,7 +7501,7 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -7533,7 +7519,7 @@
         <v>72</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>72</v>
@@ -7544,7 +7530,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7567,13 +7553,13 @@
         <v>72</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7624,7 +7610,7 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -7642,7 +7628,7 @@
         <v>72</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>72</v>
@@ -7653,7 +7639,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7676,16 +7662,20 @@
         <v>72</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>72</v>
       </c>
@@ -7733,7 +7723,7 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -7751,7 +7741,7 @@
         <v>72</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>72</v>
@@ -7762,7 +7752,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7785,20 +7775,16 @@
         <v>72</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N48" t="s" s="2">
         <v>377</v>
       </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>72</v>
       </c>
@@ -7846,7 +7832,7 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -7864,7 +7850,7 @@
         <v>72</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>72</v>
@@ -7875,7 +7861,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7898,16 +7884,18 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>72</v>
       </c>
@@ -7955,7 +7943,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -7973,7 +7961,7 @@
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7995,7 +7983,7 @@
         <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>72</v>
@@ -8007,18 +7995,16 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>385</v>
+        <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>386</v>
+        <v>94</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>72</v>
       </c>
@@ -8066,25 +8052,25 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>383</v>
+        <v>95</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -8095,18 +8081,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -8118,15 +8104,17 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>72</v>
@@ -8175,19 +8163,19 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>72</v>
@@ -8204,11 +8192,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8221,24 +8209,26 @@
         <v>72</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>72</v>
       </c>
@@ -8286,7 +8276,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -8304,7 +8294,7 @@
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
@@ -8319,39 +8309,35 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>72</v>
       </c>
@@ -8375,13 +8361,13 @@
         <v>72</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>72</v>
+        <v>393</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>72</v>
+        <v>394</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>72</v>
@@ -8399,25 +8385,25 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
@@ -8436,7 +8422,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>80</v>
@@ -8451,7 +8437,7 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>396</v>
@@ -8459,7 +8445,9 @@
       <c r="L54" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M54" s="2"/>
+      <c r="M54" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>72</v>
@@ -8487,10 +8475,10 @@
         <v>148</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>72</v>
@@ -8511,7 +8499,7 @@
         <v>395</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8526,7 +8514,7 @@
         <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -8537,7 +8525,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8545,7 +8533,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>80</v>
@@ -8560,17 +8548,15 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M55" t="s" s="2">
         <v>403</v>
       </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>72</v>
@@ -8595,7 +8581,7 @@
         <v>72</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X55" t="s" s="2">
         <v>404</v>
@@ -8619,10 +8605,10 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8637,7 +8623,7 @@
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -8671,7 +8657,7 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>407</v>
@@ -8704,7 +8690,7 @@
         <v>72</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="X56" t="s" s="2">
         <v>409</v>
@@ -8746,7 +8732,7 @@
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
@@ -8768,7 +8754,7 @@
         <v>73</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>72</v>
@@ -8780,7 +8766,7 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>412</v>
@@ -8843,7 +8829,7 @@
         <v>73</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>72</v>
@@ -8855,7 +8841,7 @@
         <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
@@ -8889,7 +8875,7 @@
         <v>72</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>237</v>
+        <v>368</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>417</v>
@@ -8922,13 +8908,13 @@
         <v>72</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>419</v>
+        <v>72</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>420</v>
+        <v>72</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>72</v>
@@ -8964,7 +8950,7 @@
         <v>72</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
@@ -8975,7 +8961,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8998,13 +8984,13 @@
         <v>72</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9055,7 +9041,7 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -9073,7 +9059,7 @@
         <v>72</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
@@ -9084,7 +9070,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9095,7 +9081,7 @@
         <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>72</v>
@@ -9107,13 +9093,13 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>425</v>
+        <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>426</v>
+        <v>94</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9164,25 +9150,25 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>424</v>
+        <v>95</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -9193,18 +9179,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>72</v>
@@ -9216,15 +9202,17 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>72</v>
@@ -9273,19 +9261,19 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>72</v>
@@ -9302,11 +9290,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9319,24 +9307,26 @@
         <v>72</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>72</v>
       </c>
@@ -9384,7 +9374,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -9402,7 +9392,7 @@
         <v>72</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -9413,43 +9403,39 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>72</v>
       </c>
@@ -9473,13 +9459,13 @@
         <v>72</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>72</v>
+        <v>428</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>72</v>
+        <v>429</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>72</v>
@@ -9497,25 +9483,25 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -9549,15 +9535,17 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>237</v>
+        <v>431</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>72</v>
@@ -9582,13 +9570,13 @@
         <v>72</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>433</v>
+        <v>72</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>434</v>
+        <v>72</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>72</v>
@@ -9624,7 +9612,7 @@
         <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -9666,9 +9654,7 @@
       <c r="L65" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>439</v>
-      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>72</v>
@@ -9735,7 +9721,7 @@
         <v>72</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
@@ -9746,7 +9732,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9757,7 +9743,7 @@
         <v>73</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>72</v>
@@ -9769,13 +9755,13 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9826,13 +9812,13 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>72</v>
@@ -9844,7 +9830,7 @@
         <v>72</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>218</v>
+        <v>442</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
@@ -9855,7 +9841,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9866,7 +9852,7 @@
         <v>73</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>72</v>
@@ -9878,13 +9864,13 @@
         <v>72</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>445</v>
+        <v>93</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>446</v>
+        <v>94</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9935,25 +9921,25 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>444</v>
+        <v>95</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>447</v>
+        <v>96</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
@@ -9964,18 +9950,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>72</v>
@@ -9987,15 +9973,17 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>72</v>
@@ -10044,19 +10032,19 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>72</v>
@@ -10073,11 +10061,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10090,24 +10078,26 @@
         <v>72</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>72</v>
       </c>
@@ -10155,7 +10145,7 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -10173,7 +10163,7 @@
         <v>72</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -10184,43 +10174,39 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>72</v>
       </c>
@@ -10268,25 +10254,25 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -10297,7 +10283,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10320,13 +10306,13 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10377,7 +10363,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -10395,7 +10381,7 @@
         <v>72</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -10406,7 +10392,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10414,10 +10400,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>72</v>
@@ -10429,13 +10415,13 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10486,13 +10472,13 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>72</v>
@@ -10504,7 +10490,7 @@
         <v>72</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
@@ -10515,7 +10501,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10523,11 +10509,11 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F73" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="G73" t="s" s="2">
         <v>72</v>
       </c>
@@ -10538,13 +10524,13 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>458</v>
+        <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>459</v>
+        <v>94</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10595,25 +10581,25 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>457</v>
+        <v>95</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AG73" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AH73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
@@ -10624,18 +10610,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>72</v>
@@ -10647,15 +10633,17 @@
         <v>72</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>72</v>
@@ -10704,19 +10692,19 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>72</v>
@@ -10733,11 +10721,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10750,24 +10738,26 @@
         <v>72</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>72</v>
       </c>
@@ -10815,7 +10805,7 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -10833,7 +10823,7 @@
         <v>72</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10844,43 +10834,39 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>72</v>
       </c>
@@ -10904,13 +10890,13 @@
         <v>72</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>72</v>
+        <v>461</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>72</v>
+        <v>462</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>72</v>
@@ -10928,25 +10914,25 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>180</v>
+        <v>463</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10957,7 +10943,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10980,13 +10966,13 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>157</v>
+        <v>465</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11013,13 +10999,13 @@
         <v>72</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>466</v>
+        <v>72</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>467</v>
+        <v>72</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>72</v>
@@ -11037,7 +11023,7 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>73</v>
@@ -11055,7 +11041,7 @@
         <v>72</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -11066,7 +11052,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11089,15 +11075,17 @@
         <v>72</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>72</v>
@@ -11146,7 +11134,7 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -11164,7 +11152,7 @@
         <v>72</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>72</v>
@@ -11175,7 +11163,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11198,17 +11186,15 @@
         <v>72</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>473</v>
+        <v>232</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>471</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>72</v>
@@ -11233,13 +11219,11 @@
         <v>72</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>72</v>
+        <v>473</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>72</v>
@@ -11257,7 +11241,7 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
@@ -11275,7 +11259,7 @@
         <v>72</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>468</v>
+        <v>213</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>72</v>
@@ -11286,7 +11270,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11297,7 +11281,7 @@
         <v>73</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>72</v>
@@ -11309,15 +11293,17 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>237</v>
+        <v>379</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>72</v>
@@ -11342,11 +11328,13 @@
         <v>72</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X80" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Y80" t="s" s="2">
-        <v>478</v>
+        <v>72</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>72</v>
@@ -11364,13 +11352,13 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>72</v>
@@ -11379,10 +11367,10 @@
         <v>117</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>72</v>
+        <v>478</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>72</v>
@@ -11393,7 +11381,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11404,7 +11392,7 @@
         <v>73</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>72</v>
@@ -11416,17 +11404,15 @@
         <v>72</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>480</v>
+        <v>93</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>72</v>
@@ -11475,25 +11461,25 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>479</v>
+        <v>95</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>483</v>
+        <v>72</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>484</v>
+        <v>96</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>72</v>
@@ -11504,18 +11490,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>72</v>
@@ -11527,15 +11513,17 @@
         <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>72</v>
@@ -11584,19 +11572,19 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>72</v>
@@ -11613,11 +11601,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11630,24 +11618,26 @@
         <v>72</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>72</v>
       </c>
@@ -11695,7 +11685,7 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
@@ -11713,7 +11703,7 @@
         <v>72</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11724,43 +11714,39 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>392</v>
+        <v>484</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>72</v>
       </c>
@@ -11808,25 +11794,25 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11837,7 +11823,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11860,13 +11846,13 @@
         <v>72</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11917,7 +11903,7 @@
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>73</v>
@@ -11935,7 +11921,7 @@
         <v>72</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11946,7 +11932,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11969,13 +11955,13 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12026,7 +12012,7 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>
@@ -12041,10 +12027,10 @@
         <v>117</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -12055,7 +12041,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12078,13 +12064,13 @@
         <v>72</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12135,7 +12121,7 @@
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>73</v>
@@ -12150,10 +12136,10 @@
         <v>117</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
@@ -12164,7 +12150,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12187,13 +12173,13 @@
         <v>72</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12244,7 +12230,7 @@
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>73</v>
@@ -12259,10 +12245,10 @@
         <v>117</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
@@ -12273,7 +12259,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12296,13 +12282,13 @@
         <v>72</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12329,13 +12315,13 @@
         <v>72</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>72</v>
+        <v>501</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>72</v>
@@ -12353,7 +12339,7 @@
         <v>72</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>73</v>
@@ -12368,10 +12354,10 @@
         <v>117</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>299</v>
+        <v>502</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
@@ -12382,7 +12368,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12405,13 +12391,13 @@
         <v>72</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12438,13 +12424,13 @@
         <v>72</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>72</v>
@@ -12462,7 +12448,7 @@
         <v>72</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>73</v>
@@ -12480,7 +12466,7 @@
         <v>72</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -12491,7 +12477,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12502,7 +12488,7 @@
         <v>73</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>72</v>
@@ -12514,15 +12500,17 @@
         <v>72</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>72</v>
@@ -12550,10 +12538,10 @@
         <v>148</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>72</v>
@@ -12571,13 +12559,13 @@
         <v>72</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>72</v>
@@ -12589,7 +12577,7 @@
         <v>72</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -12600,7 +12588,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12623,17 +12611,15 @@
         <v>72</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>237</v>
+        <v>368</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>72</v>
@@ -12658,13 +12644,13 @@
         <v>72</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>518</v>
+        <v>72</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>519</v>
+        <v>72</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>72</v>
@@ -12682,7 +12668,7 @@
         <v>72</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>73</v>
@@ -12700,7 +12686,7 @@
         <v>72</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>520</v>
+        <v>213</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -12711,7 +12697,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12734,13 +12720,13 @@
         <v>72</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12791,7 +12777,7 @@
         <v>72</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>73</v>
@@ -12809,7 +12795,7 @@
         <v>72</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12820,7 +12806,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12831,7 +12817,7 @@
         <v>73</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>72</v>
@@ -12843,20 +12829,26 @@
         <v>72</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>523</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="P94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="Q94" t="s" s="2">
         <v>72</v>
       </c>
@@ -12876,13 +12868,13 @@
         <v>72</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>72</v>
@@ -12900,13 +12892,13 @@
         <v>72</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>72</v>
@@ -12915,10 +12907,10 @@
         <v>117</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12929,7 +12921,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12940,7 +12932,7 @@
         <v>73</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>72</v>
@@ -12952,76 +12944,70 @@
         <v>72</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE95" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="K95" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P95" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="Q95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="AF95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>72</v>
@@ -13030,10 +13016,10 @@
         <v>117</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
@@ -13044,7 +13030,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13067,15 +13053,17 @@
         <v>72</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L96" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>72</v>
@@ -13124,7 +13112,7 @@
         <v>72</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>73</v>
@@ -13142,7 +13130,7 @@
         <v>72</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>72</v>
@@ -13153,7 +13141,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13164,7 +13152,7 @@
         <v>73</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>72</v>
@@ -13176,17 +13164,15 @@
         <v>72</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>538</v>
+        <v>93</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>72</v>
@@ -13235,25 +13221,25 @@
         <v>72</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>537</v>
+        <v>95</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>72</v>
@@ -13264,18 +13250,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>72</v>
@@ -13287,15 +13273,17 @@
         <v>72</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>72</v>
@@ -13344,19 +13332,19 @@
         <v>72</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>72</v>
@@ -13373,11 +13361,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13390,24 +13378,26 @@
         <v>72</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>72</v>
       </c>
@@ -13455,7 +13445,7 @@
         <v>72</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>73</v>
@@ -13473,7 +13463,7 @@
         <v>72</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -13484,43 +13474,41 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>392</v>
+        <v>540</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>393</v>
+        <v>541</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>72</v>
       </c>
@@ -13544,13 +13532,13 @@
         <v>72</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>72</v>
+        <v>543</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>72</v>
+        <v>544</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>72</v>
@@ -13568,25 +13556,25 @@
         <v>72</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>394</v>
+        <v>539</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13597,7 +13585,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13605,7 +13593,7 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>80</v>
@@ -13620,16 +13608,16 @@
         <v>72</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>157</v>
+        <v>546</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13655,13 +13643,13 @@
         <v>72</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>548</v>
+        <v>72</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>549</v>
+        <v>72</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>72</v>
@@ -13679,10 +13667,10 @@
         <v>72</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -13697,7 +13685,7 @@
         <v>72</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>72</v>
@@ -13719,7 +13707,7 @@
         <v>73</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>72</v>
@@ -13731,17 +13719,15 @@
         <v>72</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L102" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>554</v>
-      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>72</v>
@@ -13796,19 +13782,19 @@
         <v>73</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>117</v>
+        <v>553</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>72</v>
@@ -13819,7 +13805,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13830,7 +13816,7 @@
         <v>73</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>72</v>
@@ -13842,13 +13828,13 @@
         <v>72</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>556</v>
+        <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>557</v>
+        <v>94</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13899,25 +13885,25 @@
         <v>72</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>555</v>
+        <v>95</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>558</v>
+        <v>72</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
@@ -13928,18 +13914,18 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>72</v>
@@ -13951,15 +13937,17 @@
         <v>72</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M104" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>72</v>
@@ -14008,19 +13996,19 @@
         <v>72</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>72</v>
@@ -14037,11 +14025,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14054,24 +14042,26 @@
         <v>72</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>72</v>
       </c>
@@ -14119,7 +14109,7 @@
         <v>72</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>73</v>
@@ -14137,7 +14127,7 @@
         <v>72</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
@@ -14148,43 +14138,39 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>72</v>
       </c>
@@ -14232,25 +14218,25 @@
         <v>72</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>394</v>
+        <v>557</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>
@@ -14261,7 +14247,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14284,13 +14270,13 @@
         <v>72</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>213</v>
+        <v>560</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>452</v>
+        <v>561</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14341,7 +14327,7 @@
         <v>72</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>73</v>
@@ -14359,7 +14345,7 @@
         <v>72</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>
@@ -14370,7 +14356,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14393,15 +14379,17 @@
         <v>72</v>
       </c>
       <c r="J108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="K108" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>72</v>
@@ -14450,7 +14438,7 @@
         <v>72</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>73</v>
@@ -14468,7 +14456,7 @@
         <v>72</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>72</v>
@@ -14479,7 +14467,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14490,7 +14478,7 @@
         <v>73</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>72</v>
@@ -14502,17 +14490,15 @@
         <v>72</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>82</v>
+        <v>379</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>72</v>
@@ -14561,25 +14547,25 @@
         <v>72</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>117</v>
+        <v>569</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>72</v>
@@ -14590,7 +14576,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14601,7 +14587,7 @@
         <v>73</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>72</v>
@@ -14613,13 +14599,13 @@
         <v>72</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>572</v>
+        <v>93</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>573</v>
+        <v>94</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14670,25 +14656,25 @@
         <v>72</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>571</v>
+        <v>95</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>574</v>
+        <v>72</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -14699,18 +14685,18 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>72</v>
@@ -14722,15 +14708,17 @@
         <v>72</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M111" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>72</v>
@@ -14779,19 +14767,19 @@
         <v>72</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>72</v>
@@ -14808,11 +14796,11 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -14825,24 +14813,26 @@
         <v>72</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>72</v>
       </c>
@@ -14890,7 +14880,7 @@
         <v>72</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>73</v>
@@ -14908,7 +14898,7 @@
         <v>72</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>72</v>
@@ -14919,43 +14909,39 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>72</v>
       </c>
@@ -15003,25 +14989,25 @@
         <v>72</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>394</v>
+        <v>573</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>72</v>
@@ -15032,7 +15018,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15055,13 +15041,13 @@
         <v>72</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>213</v>
+        <v>560</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>452</v>
+        <v>561</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15112,7 +15098,7 @@
         <v>72</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>73</v>
@@ -15130,7 +15116,7 @@
         <v>72</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>72</v>
@@ -15141,7 +15127,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15164,15 +15150,17 @@
         <v>72</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>565</v>
+        <v>208</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M115" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>72</v>
@@ -15221,7 +15209,7 @@
         <v>72</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>73</v>
@@ -15239,7 +15227,7 @@
         <v>72</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>72</v>
@@ -15250,7 +15238,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15261,7 +15249,7 @@
         <v>73</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>72</v>
@@ -15273,16 +15261,16 @@
         <v>72</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>213</v>
+        <v>379</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15332,13 +15320,13 @@
         <v>72</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>72</v>
@@ -15350,7 +15338,7 @@
         <v>72</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>72</v>
@@ -15361,7 +15349,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15372,7 +15360,7 @@
         <v>73</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>72</v>
@@ -15384,17 +15372,15 @@
         <v>72</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>585</v>
+        <v>93</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>72</v>
@@ -15443,25 +15429,25 @@
         <v>72</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>584</v>
+        <v>95</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>72</v>
@@ -15472,18 +15458,18 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>72</v>
@@ -15495,15 +15481,17 @@
         <v>72</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M118" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>72</v>
@@ -15552,19 +15540,19 @@
         <v>72</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>72</v>
@@ -15581,11 +15569,11 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15598,24 +15586,26 @@
         <v>72</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N119" s="2"/>
+      <c r="N119" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O119" t="s" s="2">
         <v>72</v>
       </c>
@@ -15663,7 +15653,7 @@
         <v>72</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>73</v>
@@ -15681,7 +15671,7 @@
         <v>72</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>72</v>
@@ -15692,43 +15682,39 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>392</v>
+        <v>587</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>72</v>
       </c>
@@ -15776,25 +15762,25 @@
         <v>72</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>394</v>
+        <v>586</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>72</v>
@@ -15805,7 +15791,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15828,13 +15814,13 @@
         <v>72</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15861,13 +15847,13 @@
         <v>72</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>72</v>
+        <v>592</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>72</v>
+        <v>593</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>72</v>
@@ -15885,7 +15871,7 @@
         <v>72</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>80</v>
@@ -15903,7 +15889,7 @@
         <v>72</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>72</v>
@@ -15922,7 +15908,7 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>80</v>
@@ -15937,13 +15923,13 @@
         <v>72</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>157</v>
+        <v>595</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15970,13 +15956,13 @@
         <v>72</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>597</v>
+        <v>72</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>598</v>
+        <v>72</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>72</v>
@@ -15997,7 +15983,7 @@
         <v>594</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16012,7 +15998,7 @@
         <v>72</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>72</v>
@@ -16023,7 +16009,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16046,16 +16032,20 @@
         <v>72</v>
       </c>
       <c r="J123" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="K123" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="K123" t="s" s="2">
+      <c r="L123" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="N123" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>72</v>
       </c>
@@ -16103,7 +16093,7 @@
         <v>72</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>73</v>
@@ -16121,7 +16111,7 @@
         <v>72</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>218</v>
+        <v>604</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>72</v>
@@ -16132,11 +16122,11 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>72</v>
+        <v>606</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -16155,19 +16145,19 @@
         <v>72</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>72</v>
@@ -16216,7 +16206,7 @@
         <v>72</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>73</v>
@@ -16234,7 +16224,7 @@
         <v>72</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>72</v>
@@ -16245,18 +16235,18 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>611</v>
+        <v>72</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>72</v>
@@ -16268,20 +16258,16 @@
         <v>72</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>612</v>
+        <v>379</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M125" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="N125" t="s" s="2">
-        <v>616</v>
-      </c>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>72</v>
       </c>
@@ -16329,13 +16315,13 @@
         <v>72</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>72</v>
@@ -16347,7 +16333,7 @@
         <v>72</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>617</v>
+        <v>442</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>72</v>
@@ -16358,7 +16344,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16369,7 +16355,7 @@
         <v>73</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>72</v>
@@ -16381,13 +16367,13 @@
         <v>72</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>619</v>
+        <v>93</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>620</v>
+        <v>94</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16438,25 +16424,25 @@
         <v>72</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>618</v>
+        <v>95</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>447</v>
+        <v>96</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>72</v>
@@ -16467,18 +16453,18 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>72</v>
@@ -16490,15 +16476,17 @@
         <v>72</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M127" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>72</v>
@@ -16547,19 +16535,19 @@
         <v>72</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>72</v>
@@ -16576,11 +16564,11 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -16593,24 +16581,26 @@
         <v>72</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J128" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N128" s="2"/>
+      <c r="N128" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O128" t="s" s="2">
         <v>72</v>
       </c>
@@ -16658,7 +16648,7 @@
         <v>72</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>73</v>
@@ -16676,7 +16666,7 @@
         <v>72</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>72</v>
@@ -16687,43 +16677,39 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>392</v>
+        <v>620</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>72</v>
       </c>
@@ -16771,25 +16757,25 @@
         <v>72</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>394</v>
+        <v>619</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>72</v>
@@ -16800,7 +16786,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16823,13 +16809,13 @@
         <v>72</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>625</v>
+        <v>459</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>626</v>
+        <v>460</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16856,13 +16842,13 @@
         <v>72</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>72</v>
+        <v>461</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>72</v>
+        <v>462</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>72</v>
@@ -16880,7 +16866,7 @@
         <v>72</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>73</v>
@@ -16898,7 +16884,7 @@
         <v>72</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>218</v>
+        <v>463</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>72</v>
@@ -16909,7 +16895,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16932,13 +16918,13 @@
         <v>72</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>157</v>
+        <v>465</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16965,13 +16951,13 @@
         <v>72</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>466</v>
+        <v>72</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>467</v>
+        <v>72</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>72</v>
@@ -16989,7 +16975,7 @@
         <v>72</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>73</v>
@@ -17007,7 +16993,7 @@
         <v>72</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>72</v>
@@ -17018,7 +17004,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17041,15 +17027,17 @@
         <v>72</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M132" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>72</v>
@@ -17098,7 +17086,7 @@
         <v>72</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>73</v>
@@ -17116,7 +17104,7 @@
         <v>72</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>72</v>
@@ -17127,7 +17115,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17150,17 +17138,15 @@
         <v>72</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>473</v>
+        <v>232</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>471</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>72</v>
@@ -17185,13 +17171,13 @@
         <v>72</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>72</v>
+        <v>626</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>72</v>
+        <v>473</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>72</v>
@@ -17209,7 +17195,7 @@
         <v>72</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>73</v>
@@ -17227,7 +17213,7 @@
         <v>72</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>468</v>
+        <v>627</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>72</v>
@@ -17238,7 +17224,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17261,13 +17247,13 @@
         <v>72</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>476</v>
+        <v>629</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>477</v>
+        <v>630</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -17296,12 +17282,10 @@
       <c r="W134" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X134" t="s" s="2">
+      <c r="X134" s="2"/>
+      <c r="Y134" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="Y134" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="Z134" t="s" s="2">
         <v>72</v>
       </c>
@@ -17318,7 +17302,7 @@
         <v>72</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>73</v>
@@ -17336,7 +17320,7 @@
         <v>72</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>72</v>
@@ -17347,7 +17331,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17370,13 +17354,13 @@
         <v>72</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -17403,9 +17387,11 @@
         <v>72</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X135" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>635</v>
+      </c>
       <c r="Y135" t="s" s="2">
         <v>636</v>
       </c>
@@ -17425,7 +17411,7 @@
         <v>72</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>73</v>
@@ -17443,7 +17429,7 @@
         <v>72</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>72</v>
@@ -17454,7 +17440,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17477,13 +17463,13 @@
         <v>72</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -17510,13 +17496,13 @@
         <v>72</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>72</v>
@@ -17534,7 +17520,7 @@
         <v>72</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>73</v>
@@ -17552,7 +17538,7 @@
         <v>72</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>642</v>
+        <v>180</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>72</v>
@@ -17619,7 +17605,7 @@
         <v>72</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="X137" t="s" s="2">
         <v>646</v>
@@ -17728,7 +17714,7 @@
         <v>72</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="X138" t="s" s="2">
         <v>651</v>
@@ -17837,7 +17823,7 @@
         <v>72</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="X139" t="s" s="2">
         <v>656</v>
@@ -17946,7 +17932,7 @@
         <v>72</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="X140" t="s" s="2">
         <v>661</v>
@@ -18022,15 +18008,17 @@
         <v>72</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>157</v>
+        <v>664</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="M141" s="2"/>
+        <v>666</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>667</v>
+      </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>72</v>
@@ -18055,13 +18043,13 @@
         <v>72</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>246</v>
+        <v>72</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>666</v>
+        <v>72</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>667</v>
+        <v>72</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>72</v>
@@ -18094,10 +18082,10 @@
         <v>117</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>72</v>
+        <v>668</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>180</v>
+        <v>479</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>72</v>
@@ -18108,7 +18096,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18131,16 +18119,16 @@
         <v>72</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
@@ -18190,7 +18178,7 @@
         <v>72</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>73</v>
@@ -18205,10 +18193,10 @@
         <v>117</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>673</v>
+        <v>72</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>484</v>
+        <v>180</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>72</v>
@@ -18230,7 +18218,7 @@
         <v>73</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>72</v>
@@ -18242,16 +18230,16 @@
         <v>72</v>
       </c>
       <c r="J143" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K143" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="K143" t="s" s="2">
+      <c r="L143" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="M143" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
@@ -18307,7 +18295,7 @@
         <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>72</v>
@@ -18330,7 +18318,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18341,7 +18329,7 @@
         <v>73</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>72</v>
@@ -18353,17 +18341,15 @@
         <v>72</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>680</v>
+        <v>93</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>682</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
         <v>72</v>
@@ -18412,25 +18398,25 @@
         <v>72</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>679</v>
+        <v>95</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>72</v>
@@ -18441,18 +18427,18 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>72</v>
@@ -18464,15 +18450,17 @@
         <v>72</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M145" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>72</v>
@@ -18521,19 +18509,19 @@
         <v>72</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>72</v>
@@ -18550,11 +18538,11 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>98</v>
+        <v>386</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -18567,24 +18555,26 @@
         <v>72</v>
       </c>
       <c r="H146" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J146" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N146" s="2"/>
+      <c r="N146" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O146" t="s" s="2">
         <v>72</v>
       </c>
@@ -18632,7 +18622,7 @@
         <v>72</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>73</v>
@@ -18650,7 +18640,7 @@
         <v>72</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>72</v>
@@ -18661,43 +18651,41 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>391</v>
+        <v>72</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>392</v>
+        <v>682</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>393</v>
+        <v>683</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>72</v>
       </c>
@@ -18745,19 +18733,19 @@
         <v>72</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>394</v>
+        <v>681</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>72</v>
@@ -18774,7 +18762,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -18797,16 +18785,16 @@
         <v>72</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>213</v>
+        <v>546</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="L148" t="s" s="2">
-        <v>688</v>
-      </c>
       <c r="M148" t="s" s="2">
-        <v>689</v>
+        <v>549</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -18856,7 +18844,7 @@
         <v>72</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>73</v>
@@ -18885,7 +18873,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -18896,7 +18884,7 @@
         <v>73</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>72</v>
@@ -18908,17 +18896,15 @@
         <v>72</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>551</v>
+        <v>72</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>72</v>
@@ -18967,13 +18953,13 @@
         <v>72</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>72</v>
@@ -18982,7 +18968,7 @@
         <v>117</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>72</v>
+        <v>691</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>180</v>
@@ -18996,7 +18982,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19007,7 +18993,7 @@
         <v>73</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>72</v>
@@ -19016,10 +19002,10 @@
         <v>72</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>72</v>
+        <v>693</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>694</v>
@@ -19052,13 +19038,13 @@
         <v>72</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>72</v>
+        <v>696</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>72</v>
+        <v>697</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>72</v>
@@ -19076,13 +19062,13 @@
         <v>72</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>72</v>
@@ -19091,129 +19077,20 @@
         <v>117</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>696</v>
+        <v>72</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>180</v>
+        <v>698</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="151" hidden="true">
-      <c r="A151" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="F151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="P151" s="2"/>
-      <c r="Q151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="R151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AM151" t="s" s="2">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM151">
+  <autoFilter ref="A1:AM150">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19223,7 +19100,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI150">
+  <conditionalFormatting sqref="A2:AI149">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:16+00:00</t>
+    <t>2022-11-28T18:44:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:54+00:00</t>
+    <t>2022-11-28T18:46:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:46:24+00:00</t>
+    <t>2022-11-28T18:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:54:17+00:00</t>
+    <t>2022-11-28T18:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:57:56+00:00</t>
+    <t>2022-11-28T19:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T19:21:05+00:00</t>
+    <t>2022-11-28T20:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T20:19:31+00:00</t>
+    <t>2022-11-28T21:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:47:14+00:00</t>
+    <t>2022-11-28T21:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:50:18+00:00</t>
+    <t>2022-11-28T22:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T22:13:55+00:00</t>
+    <t>2022-11-29T14:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:31:35+00:00</t>
+    <t>2022-11-29T14:39:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:39:13+00:00</t>
+    <t>2022-11-29T18:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T18:40:08+00:00</t>
+    <t>2022-11-29T19:09:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:09:47+00:00</t>
+    <t>2022-11-29T19:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:18:22+00:00</t>
+    <t>2022-11-29T19:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:32:41+00:00</t>
+    <t>2022-11-29T19:42:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:42:29+00:00</t>
+    <t>2022-11-29T19:57:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-defined-activities.xlsx
+++ b/branches/master/StructureDefinition-defined-activities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:57:48+00:00</t>
+    <t>2022-11-29T20:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
